--- a/data/master_inventory.xlsx
+++ b/data/master_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manav Sonawane\Desktop\StockTrack\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3637FA39-F2F9-4317-896A-E01509B6E5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0937A5BF-503E-4F90-BB0B-F164F7C9007B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="4020" windowWidth="15930" windowHeight="10575" xr2:uid="{31743594-4A02-4F7C-A9D9-AAE60BFCF48E}"/>
+    <workbookView xWindow="13575" yWindow="5955" windowWidth="15930" windowHeight="10575" xr2:uid="{31743594-4A02-4F7C-A9D9-AAE60BFCF48E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +403,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C413E8-751A-4628-AF4A-27174136262F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/master_inventory.xlsx
+++ b/data/master_inventory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,146 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SH0001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Adidas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ultraboost</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SH0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Puma</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SH0003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Flex</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SH0004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SH0005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Reebok</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Runner</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
